--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H2">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.620476339262808</v>
+        <v>0.8080803333333334</v>
       </c>
       <c r="N2">
-        <v>0.620476339262808</v>
+        <v>2.424241</v>
       </c>
       <c r="O2">
-        <v>0.1116112080981533</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="P2">
-        <v>0.1116112080981533</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="Q2">
-        <v>0.7679374168882486</v>
+        <v>0.7054926494958891</v>
       </c>
       <c r="R2">
-        <v>0.7679374168882486</v>
+        <v>6.349433845463001</v>
       </c>
       <c r="S2">
-        <v>0.003289645748223573</v>
+        <v>0.002091924179578375</v>
       </c>
       <c r="T2">
-        <v>0.003289645748223573</v>
+        <v>0.002091924179578376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H3">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.20321417300677</v>
+        <v>1.229617666666667</v>
       </c>
       <c r="N3">
-        <v>1.20321417300677</v>
+        <v>3.688853</v>
       </c>
       <c r="O3">
-        <v>0.2164340184343846</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="P3">
-        <v>0.2164340184343846</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="Q3">
-        <v>1.489167475878213</v>
+        <v>1.073514834775445</v>
       </c>
       <c r="R3">
-        <v>1.489167475878213</v>
+        <v>9.661633512979</v>
       </c>
       <c r="S3">
-        <v>0.006379209226796248</v>
+        <v>0.003183182194183758</v>
       </c>
       <c r="T3">
-        <v>0.006379209226796248</v>
+        <v>0.003183182194183758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H4">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.73557499372824</v>
+        <v>0.07532033333333334</v>
       </c>
       <c r="N4">
-        <v>3.73557499372824</v>
+        <v>0.225961</v>
       </c>
       <c r="O4">
-        <v>0.6719547734674621</v>
+        <v>0.01120011840469304</v>
       </c>
       <c r="P4">
-        <v>0.6719547734674621</v>
+        <v>0.01120011840469305</v>
       </c>
       <c r="Q4">
-        <v>4.623363744513299</v>
+        <v>0.06575824126922224</v>
       </c>
       <c r="R4">
-        <v>4.623363744513299</v>
+        <v>0.591824171423</v>
       </c>
       <c r="S4">
-        <v>0.01980529734604983</v>
+        <v>0.0001949860923652843</v>
       </c>
       <c r="T4">
-        <v>0.01980529734604983</v>
+        <v>0.0001949860923652844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>38.8386590353617</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H5">
-        <v>38.8386590353617</v>
+        <v>2.619143</v>
       </c>
       <c r="I5">
-        <v>0.9249216535160822</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J5">
-        <v>0.9249216535160822</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.620476339262808</v>
+        <v>4.611940333333333</v>
       </c>
       <c r="N5">
-        <v>0.620476339262808</v>
+        <v>13.835821</v>
       </c>
       <c r="O5">
-        <v>0.1116112080981533</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="P5">
-        <v>0.1116112080981533</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="Q5">
-        <v>24.09846898013761</v>
+        <v>4.026443746822556</v>
       </c>
       <c r="R5">
-        <v>24.09846898013761</v>
+        <v>36.237993721403</v>
       </c>
       <c r="S5">
-        <v>0.1032316231450715</v>
+        <v>0.01193919601814269</v>
       </c>
       <c r="T5">
-        <v>0.1032316231450715</v>
+        <v>0.01193919601814269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H6">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.20321417300677</v>
+        <v>0.8080803333333334</v>
       </c>
       <c r="N6">
-        <v>1.20321417300677</v>
+        <v>2.424241</v>
       </c>
       <c r="O6">
-        <v>0.2164340184343846</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="P6">
-        <v>0.2164340184343846</v>
+        <v>0.1201613829001973</v>
       </c>
       <c r="Q6">
-        <v>46.73122501192464</v>
+        <v>1.012130853184222</v>
       </c>
       <c r="R6">
-        <v>46.73122501192464</v>
+        <v>9.109177678658002</v>
       </c>
       <c r="S6">
-        <v>0.2001845102074612</v>
+        <v>0.003001166640341733</v>
       </c>
       <c r="T6">
-        <v>0.2001845102074612</v>
+        <v>0.003001166640341734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H7">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.73557499372824</v>
+        <v>1.229617666666667</v>
       </c>
       <c r="N7">
-        <v>3.73557499372824</v>
+        <v>3.688853</v>
       </c>
       <c r="O7">
-        <v>0.6719547734674621</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="P7">
-        <v>0.6719547734674621</v>
+        <v>0.1828438995114518</v>
       </c>
       <c r="Q7">
-        <v>145.0847234824345</v>
+        <v>1.540111702657111</v>
       </c>
       <c r="R7">
-        <v>145.0847234824345</v>
+        <v>13.861005323914</v>
       </c>
       <c r="S7">
-        <v>0.6215055201635495</v>
+        <v>0.004566733490904792</v>
       </c>
       <c r="T7">
-        <v>0.6215055201635495</v>
+        <v>0.004566733490904792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.91497922114815</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H8">
-        <v>1.91497922114815</v>
+        <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.04560419416284801</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J8">
-        <v>0.04560419416284801</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.620476339262808</v>
+        <v>0.07532033333333334</v>
       </c>
       <c r="N8">
-        <v>0.620476339262808</v>
+        <v>0.225961</v>
       </c>
       <c r="O8">
-        <v>0.1116112080981533</v>
+        <v>0.01120011840469304</v>
       </c>
       <c r="P8">
-        <v>0.1116112080981533</v>
+        <v>0.01120011840469305</v>
       </c>
       <c r="Q8">
-        <v>1.188199296902347</v>
+        <v>0.09433967155755557</v>
       </c>
       <c r="R8">
-        <v>1.188199296902347</v>
+        <v>0.8490570440180001</v>
       </c>
       <c r="S8">
-        <v>0.005089939204858218</v>
+        <v>0.0002797356431222219</v>
       </c>
       <c r="T8">
-        <v>0.005089939204858218</v>
+        <v>0.000279735643122222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.91497922114815</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H9">
-        <v>1.91497922114815</v>
+        <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.04560419416284801</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J9">
-        <v>0.04560419416284801</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.20321417300677</v>
+        <v>4.611940333333333</v>
       </c>
       <c r="N9">
-        <v>1.20321417300677</v>
+        <v>13.835821</v>
       </c>
       <c r="O9">
-        <v>0.2164340184343846</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="P9">
-        <v>0.2164340184343846</v>
+        <v>0.6857945991836579</v>
       </c>
       <c r="Q9">
-        <v>2.30413013989892</v>
+        <v>5.776513685410889</v>
       </c>
       <c r="R9">
-        <v>2.30413013989892</v>
+        <v>51.988623168698</v>
       </c>
       <c r="S9">
-        <v>0.0098702990001271</v>
+        <v>0.01712849688910451</v>
       </c>
       <c r="T9">
-        <v>0.0098702990001271</v>
+        <v>0.01712849688910451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>45.633473</v>
+      </c>
+      <c r="H10">
+        <v>136.900419</v>
+      </c>
+      <c r="I10">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J10">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8080803333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.424241</v>
+      </c>
+      <c r="O10">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="P10">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="Q10">
+        <v>36.87551207299767</v>
+      </c>
+      <c r="R10">
+        <v>331.879608656979</v>
+      </c>
+      <c r="S10">
+        <v>0.1093431312076167</v>
+      </c>
+      <c r="T10">
+        <v>0.1093431312076167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>45.633473</v>
+      </c>
+      <c r="H11">
+        <v>136.900419</v>
+      </c>
+      <c r="I11">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J11">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.229617666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.688853</v>
+      </c>
+      <c r="O11">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="P11">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="Q11">
+        <v>56.11172459215634</v>
+      </c>
+      <c r="R11">
+        <v>505.005521329407</v>
+      </c>
+      <c r="S11">
+        <v>0.1663822770032395</v>
+      </c>
+      <c r="T11">
+        <v>0.1663822770032395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>45.633473</v>
+      </c>
+      <c r="H12">
+        <v>136.900419</v>
+      </c>
+      <c r="I12">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J12">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07532033333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.225961</v>
+      </c>
+      <c r="O12">
+        <v>0.01120011840469304</v>
+      </c>
+      <c r="P12">
+        <v>0.01120011840469305</v>
+      </c>
+      <c r="Q12">
+        <v>3.437128397517667</v>
+      </c>
+      <c r="R12">
+        <v>30.934155577659</v>
+      </c>
+      <c r="S12">
+        <v>0.01019176033686596</v>
+      </c>
+      <c r="T12">
+        <v>0.01019176033686596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>45.633473</v>
+      </c>
+      <c r="H13">
+        <v>136.900419</v>
+      </c>
+      <c r="I13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.611940333333333</v>
+      </c>
+      <c r="N13">
+        <v>13.835821</v>
+      </c>
+      <c r="O13">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="P13">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="Q13">
+        <v>210.4588546787777</v>
+      </c>
+      <c r="R13">
+        <v>1894.129692108999</v>
+      </c>
+      <c r="S13">
+        <v>0.6240518129047805</v>
+      </c>
+      <c r="T13">
+        <v>0.6240518129047805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J14">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8080803333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.424241</v>
+      </c>
+      <c r="O14">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="P14">
+        <v>0.1201613829001973</v>
+      </c>
+      <c r="Q14">
+        <v>1.930786475089889</v>
+      </c>
+      <c r="R14">
+        <v>17.377078275809</v>
+      </c>
+      <c r="S14">
+        <v>0.005725160872660481</v>
+      </c>
+      <c r="T14">
+        <v>0.005725160872660484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J15">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.229617666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.688853</v>
+      </c>
+      <c r="O15">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="P15">
+        <v>0.1828438995114518</v>
+      </c>
+      <c r="Q15">
+        <v>2.937986561977445</v>
+      </c>
+      <c r="R15">
+        <v>26.441879057797</v>
+      </c>
+      <c r="S15">
+        <v>0.008711706823123706</v>
+      </c>
+      <c r="T15">
+        <v>0.008711706823123706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="H10">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="I10">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="J10">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.73557499372824</v>
-      </c>
-      <c r="N10">
-        <v>3.73557499372824</v>
-      </c>
-      <c r="O10">
-        <v>0.6719547734674621</v>
-      </c>
-      <c r="P10">
-        <v>0.6719547734674621</v>
-      </c>
-      <c r="Q10">
-        <v>7.15354849203021</v>
-      </c>
-      <c r="R10">
-        <v>7.15354849203021</v>
-      </c>
-      <c r="S10">
-        <v>0.0306439559578627</v>
-      </c>
-      <c r="T10">
-        <v>0.0306439559578627</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J16">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07532033333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.225961</v>
+      </c>
+      <c r="O16">
+        <v>0.01120011840469304</v>
+      </c>
+      <c r="P16">
+        <v>0.01120011840469305</v>
+      </c>
+      <c r="Q16">
+        <v>0.1799666133432223</v>
+      </c>
+      <c r="R16">
+        <v>1.619699520089</v>
+      </c>
+      <c r="S16">
+        <v>0.0005336363323395797</v>
+      </c>
+      <c r="T16">
+        <v>0.0005336363323395799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J17">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.611940333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.835821</v>
+      </c>
+      <c r="O17">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="P17">
+        <v>0.6857945991836579</v>
+      </c>
+      <c r="Q17">
+        <v>11.01953809813656</v>
+      </c>
+      <c r="R17">
+        <v>99.17584288322901</v>
+      </c>
+      <c r="S17">
+        <v>0.03267509337163021</v>
+      </c>
+      <c r="T17">
+        <v>0.03267509337163022</v>
       </c>
     </row>
   </sheetData>
